--- a/13/2/1/2/Deuda por acreedor 1990 a 2021 - Trimestral.xlsx
+++ b/13/2/1/2/Deuda por acreedor 1990 a 2021 - Trimestral.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="90">
   <si>
     <t>Serie</t>
   </si>
@@ -281,6 +281,9 @@
   </si>
   <si>
     <t>01-01-2021</t>
+  </si>
+  <si>
+    <t>01-04-2021</t>
   </si>
 </sst>
 </file>
@@ -638,7 +641,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V78"/>
+  <dimension ref="A1:V79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4982,6 +4985,56 @@
         <v>147</v>
       </c>
     </row>
+    <row r="79" spans="1:22">
+      <c r="A79" t="s">
+        <v>89</v>
+      </c>
+      <c r="B79">
+        <v>97831</v>
+      </c>
+      <c r="D79">
+        <v>96245</v>
+      </c>
+      <c r="E79">
+        <v>1298</v>
+      </c>
+      <c r="F79">
+        <v>137</v>
+      </c>
+      <c r="G79">
+        <v>19</v>
+      </c>
+      <c r="J79">
+        <v>132</v>
+      </c>
+      <c r="K79">
+        <v>69174</v>
+      </c>
+      <c r="M79">
+        <v>69155</v>
+      </c>
+      <c r="N79">
+        <v>19</v>
+      </c>
+      <c r="O79">
+        <v>0</v>
+      </c>
+      <c r="P79">
+        <v>28657</v>
+      </c>
+      <c r="Q79">
+        <v>27090</v>
+      </c>
+      <c r="R79">
+        <v>1298</v>
+      </c>
+      <c r="S79">
+        <v>137</v>
+      </c>
+      <c r="V79">
+        <v>132</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
